--- a/Data/Loteria Words for Bingo.xlsx
+++ b/Data/Loteria Words for Bingo.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gonza\Desktop\GitHub\SASsy_Bingo\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E7AEE3-F540-484D-A694-19C880048F42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{215358E1-6A9B-49FD-AAD0-442A9860221B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{4010E0BB-E8A8-4FBA-ACBF-0FC14DA3740C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{4010E0BB-E8A8-4FBA-ACBF-0FC14DA3740C}"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">items!$A$1:$D$130</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">items!$A$1:$D$165</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="321">
   <si>
     <t>English</t>
   </si>
@@ -1025,7 +1025,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1377,8 +1376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62E4F7C6-4E31-4F3B-9BAB-9FBA08532492}">
   <dimension ref="A1:D165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="D155" sqref="D155"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2608,6 +2607,9 @@
       <c r="B138" t="s">
         <v>314</v>
       </c>
+      <c r="D138" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
@@ -2616,6 +2618,9 @@
       <c r="B139" t="s">
         <v>289</v>
       </c>
+      <c r="D139" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
@@ -2624,6 +2629,9 @@
       <c r="B140" t="s">
         <v>290</v>
       </c>
+      <c r="D140" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
@@ -2632,6 +2640,9 @@
       <c r="B141" t="s">
         <v>293</v>
       </c>
+      <c r="D141" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
@@ -2640,6 +2651,9 @@
       <c r="B142" t="s">
         <v>294</v>
       </c>
+      <c r="D142" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
@@ -2648,6 +2662,9 @@
       <c r="B143" t="s">
         <v>273</v>
       </c>
+      <c r="D143" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
@@ -2667,6 +2684,9 @@
       <c r="B145" t="s">
         <v>296</v>
       </c>
+      <c r="D145" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
@@ -2675,6 +2695,9 @@
       <c r="B146" t="s">
         <v>297</v>
       </c>
+      <c r="D146" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
@@ -2683,6 +2706,9 @@
       <c r="B147" t="s">
         <v>298</v>
       </c>
+      <c r="D147" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
@@ -2691,6 +2717,9 @@
       <c r="B148" t="s">
         <v>299</v>
       </c>
+      <c r="D148" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
@@ -2699,6 +2728,9 @@
       <c r="B149" t="s">
         <v>301</v>
       </c>
+      <c r="D149" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
@@ -2850,7 +2882,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D130" xr:uid="{62E4F7C6-4E31-4F3B-9BAB-9FBA08532492}"/>
+  <autoFilter ref="A1:D165" xr:uid="{62E4F7C6-4E31-4F3B-9BAB-9FBA08532492}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C128">
     <sortCondition ref="A2:A128"/>
   </sortState>

--- a/Data/Loteria Words for Bingo.xlsx
+++ b/Data/Loteria Words for Bingo.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gonza\Desktop\GitHub\SASsy_Bingo\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{215358E1-6A9B-49FD-AAD0-442A9860221B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC381C78-9022-479C-B3E7-DB9EEEF175EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{4010E0BB-E8A8-4FBA-ACBF-0FC14DA3740C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{4010E0BB-E8A8-4FBA-ACBF-0FC14DA3740C}"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">items!$A$1:$D$165</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">items!$A$1:$D$198</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="392">
   <si>
     <t>English</t>
   </si>
@@ -478,12 +478,6 @@
     <t>cebolla</t>
   </si>
   <si>
-    <t>mushroom</t>
-  </si>
-  <si>
-    <t>hongo</t>
-  </si>
-  <si>
     <t>lettuce</t>
   </si>
   <si>
@@ -622,9 +616,6 @@
     <t>rodillas</t>
   </si>
   <si>
-    <t>foot</t>
-  </si>
-  <si>
     <t>pie</t>
   </si>
   <si>
@@ -853,9 +844,6 @@
     <t>sorbet</t>
   </si>
   <si>
-    <t>bumble bee</t>
-  </si>
-  <si>
     <t>fireplace</t>
   </si>
   <si>
@@ -901,9 +889,6 @@
     <t>flip flops</t>
   </si>
   <si>
-    <t>umbrellas</t>
-  </si>
-  <si>
     <t>sand</t>
   </si>
   <si>
@@ -925,9 +910,6 @@
     <t>chimenea</t>
   </si>
   <si>
-    <t>oceano</t>
-  </si>
-  <si>
     <t>tortuga</t>
   </si>
   <si>
@@ -982,9 +964,6 @@
     <t>arena</t>
   </si>
   <si>
-    <t>ritmo</t>
-  </si>
-  <si>
     <t>sweet bread</t>
   </si>
   <si>
@@ -1001,6 +980,240 @@
   </si>
   <si>
     <t>costa</t>
+  </si>
+  <si>
+    <t>fruit</t>
+  </si>
+  <si>
+    <t>fruta</t>
+  </si>
+  <si>
+    <t>sunset</t>
+  </si>
+  <si>
+    <t>sailing</t>
+  </si>
+  <si>
+    <t>puesta de sol</t>
+  </si>
+  <si>
+    <t>door</t>
+  </si>
+  <si>
+    <t>puerta</t>
+  </si>
+  <si>
+    <t>bird</t>
+  </si>
+  <si>
+    <t>birdhouse</t>
+  </si>
+  <si>
+    <t>pájaro</t>
+  </si>
+  <si>
+    <t>bridge</t>
+  </si>
+  <si>
+    <t>car</t>
+  </si>
+  <si>
+    <t>fire hydrant</t>
+  </si>
+  <si>
+    <t>orchestra</t>
+  </si>
+  <si>
+    <t>auditorium</t>
+  </si>
+  <si>
+    <t>chess</t>
+  </si>
+  <si>
+    <t>fountain</t>
+  </si>
+  <si>
+    <t>chair</t>
+  </si>
+  <si>
+    <t>windmill</t>
+  </si>
+  <si>
+    <t>lighthouse</t>
+  </si>
+  <si>
+    <t>lake</t>
+  </si>
+  <si>
+    <t>garden</t>
+  </si>
+  <si>
+    <t>rocks</t>
+  </si>
+  <si>
+    <t>dog bowl</t>
+  </si>
+  <si>
+    <t>squirrel</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>mushrooms</t>
+  </si>
+  <si>
+    <t>puente</t>
+  </si>
+  <si>
+    <t>carro</t>
+  </si>
+  <si>
+    <t>boca de incendio</t>
+  </si>
+  <si>
+    <t>orquesta</t>
+  </si>
+  <si>
+    <t>ajedrez</t>
+  </si>
+  <si>
+    <t>fuente</t>
+  </si>
+  <si>
+    <t>silla</t>
+  </si>
+  <si>
+    <t>molino</t>
+  </si>
+  <si>
+    <t>faro</t>
+  </si>
+  <si>
+    <t>lago</t>
+  </si>
+  <si>
+    <t>jardín</t>
+  </si>
+  <si>
+    <t>piedras</t>
+  </si>
+  <si>
+    <t>cuenco para perros</t>
+  </si>
+  <si>
+    <t>ardilla</t>
+  </si>
+  <si>
+    <t>life preserver</t>
+  </si>
+  <si>
+    <t>amigas</t>
+  </si>
+  <si>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>green beans</t>
+  </si>
+  <si>
+    <t>frijoles verdes</t>
+  </si>
+  <si>
+    <t>papas</t>
+  </si>
+  <si>
+    <t>juego de tejo</t>
+  </si>
+  <si>
+    <t>shuffleboard</t>
+  </si>
+  <si>
+    <t>salvavidas</t>
+  </si>
+  <si>
+    <t>auditorio</t>
+  </si>
+  <si>
+    <t>casita para pájaros</t>
+  </si>
+  <si>
+    <t>pajarera - ask Dinorath</t>
+  </si>
+  <si>
+    <t>la vela</t>
+  </si>
+  <si>
+    <t>feet</t>
+  </si>
+  <si>
+    <t>pies</t>
+  </si>
+  <si>
+    <t>hongos</t>
+  </si>
+  <si>
+    <t>la iguana</t>
+  </si>
+  <si>
+    <t>columpio</t>
+  </si>
+  <si>
+    <t>bumblebee</t>
+  </si>
+  <si>
+    <t>el océano</t>
+  </si>
+  <si>
+    <t>for the sun</t>
+  </si>
+  <si>
+    <t>el paraguas</t>
+  </si>
+  <si>
+    <t>for the rain</t>
+  </si>
+  <si>
+    <t>sun umbrellas</t>
+  </si>
+  <si>
+    <t>rain umbrellas</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>abierto</t>
+  </si>
+  <si>
+    <t>cierra</t>
+  </si>
+  <si>
+    <t>coconut</t>
+  </si>
+  <si>
+    <t>coco</t>
+  </si>
+  <si>
+    <t>lounge chair</t>
+  </si>
+  <si>
+    <t>sillón</t>
+  </si>
+  <si>
+    <t>palm tree</t>
+  </si>
+  <si>
+    <t>palmera</t>
+  </si>
+  <si>
+    <t>towels</t>
+  </si>
+  <si>
+    <t>toallas</t>
   </si>
 </sst>
 </file>
@@ -1374,10 +1587,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62E4F7C6-4E31-4F3B-9BAB-9FBA08532492}">
-  <dimension ref="A1:D165"/>
+  <dimension ref="A1:D198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1395,10 +1609,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -1406,7 +1620,7 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -1414,7 +1628,7 @@
         <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -1430,7 +1644,7 @@
         <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -1438,7 +1652,7 @@
         <v>60</v>
       </c>
       <c r="B6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -1446,7 +1660,7 @@
         <v>70</v>
       </c>
       <c r="B7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -1454,7 +1668,7 @@
         <v>80</v>
       </c>
       <c r="B8" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -1462,7 +1676,7 @@
         <v>90</v>
       </c>
       <c r="B9" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -1475,18 +1689,18 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B11" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
@@ -1499,18 +1713,18 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>193</v>
+      </c>
+      <c r="B14" t="s">
         <v>196</v>
-      </c>
-      <c r="B14" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B15" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
@@ -1526,18 +1740,18 @@
         <v>55</v>
       </c>
       <c r="B17" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B18" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
@@ -1545,15 +1759,15 @@
         <v>87</v>
       </c>
       <c r="B19" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B20" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
@@ -1564,7 +1778,7 @@
         <v>46</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
@@ -1572,29 +1786,29 @@
         <v>105</v>
       </c>
       <c r="B22" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B23" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D23" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B24" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D24" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
@@ -1602,10 +1816,10 @@
         <v>19</v>
       </c>
       <c r="B25" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D25" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
@@ -1616,7 +1830,7 @@
         <v>65</v>
       </c>
       <c r="D26" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
@@ -1624,7 +1838,7 @@
         <v>66</v>
       </c>
       <c r="B27" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
@@ -1645,13 +1859,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B30" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D30" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
@@ -1662,7 +1876,7 @@
         <v>11</v>
       </c>
       <c r="D31" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
@@ -1678,10 +1892,10 @@
         <v>139</v>
       </c>
       <c r="B33" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D33" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
@@ -1700,15 +1914,15 @@
         <v>50</v>
       </c>
       <c r="D35" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B36" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
@@ -1721,13 +1935,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B38" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D38" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
@@ -1754,7 +1968,7 @@
         <v>54</v>
       </c>
       <c r="D41" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
@@ -1775,10 +1989,10 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
+        <v>172</v>
+      </c>
+      <c r="B44" t="s">
         <v>174</v>
-      </c>
-      <c r="B44" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
@@ -1791,10 +2005,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>194</v>
+        <v>368</v>
       </c>
       <c r="B46" t="s">
-        <v>195</v>
+        <v>369</v>
+      </c>
+      <c r="D46" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
@@ -1813,26 +2030,26 @@
         <v>59</v>
       </c>
       <c r="D48" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B49" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B50" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D50" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
@@ -1840,10 +2057,10 @@
         <v>18</v>
       </c>
       <c r="B51" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D51" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
@@ -1854,7 +2071,7 @@
         <v>63</v>
       </c>
       <c r="D52" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
@@ -1867,13 +2084,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B54" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D54" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
@@ -1902,13 +2119,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B58" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D58" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
@@ -1924,7 +2141,7 @@
         <v>104</v>
       </c>
       <c r="B60" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
@@ -1943,29 +2160,29 @@
         <v>3</v>
       </c>
       <c r="D62" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
+        <v>173</v>
+      </c>
+      <c r="B63" t="s">
         <v>175</v>
       </c>
-      <c r="B63" t="s">
-        <v>177</v>
-      </c>
       <c r="D63" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B64" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D64" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
@@ -1973,7 +2190,7 @@
         <v>101</v>
       </c>
       <c r="B65" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
@@ -1983,13 +2200,16 @@
       <c r="B66" t="s">
         <v>17</v>
       </c>
+      <c r="D66" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B67" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
@@ -2002,10 +2222,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B69" t="s">
-        <v>149</v>
+        <v>147</v>
+      </c>
+      <c r="D69" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
@@ -2032,15 +2255,15 @@
         <v>42</v>
       </c>
       <c r="D72" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
+        <v>181</v>
+      </c>
+      <c r="B73" t="s">
         <v>183</v>
-      </c>
-      <c r="B73" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
@@ -2051,31 +2274,34 @@
         <v>5</v>
       </c>
       <c r="D74" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B75" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B76" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>146</v>
+        <v>340</v>
       </c>
       <c r="B77" t="s">
-        <v>147</v>
+        <v>370</v>
+      </c>
+      <c r="D77" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
@@ -2136,10 +2362,10 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B85" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
@@ -2147,10 +2373,10 @@
         <v>116</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C86" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
@@ -2171,13 +2397,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B89" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D89" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
@@ -2185,7 +2411,7 @@
         <v>77</v>
       </c>
       <c r="B90" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
@@ -2203,6 +2429,9 @@
       <c r="B92" t="s">
         <v>48</v>
       </c>
+      <c r="D92" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
@@ -2219,13 +2448,16 @@
       <c r="B94" t="s">
         <v>15</v>
       </c>
+      <c r="D94" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B95" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
@@ -2257,7 +2489,7 @@
         <v>22</v>
       </c>
       <c r="B99" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
@@ -2281,15 +2513,15 @@
         <v>86</v>
       </c>
       <c r="B102" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
+        <v>180</v>
+      </c>
+      <c r="B103" t="s">
         <v>182</v>
-      </c>
-      <c r="B103" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
@@ -2310,21 +2542,21 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B106" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B107" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D107" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
@@ -2332,26 +2564,26 @@
         <v>6</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B109" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D109" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B110" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.35">
@@ -2380,10 +2612,10 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B114" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.35">
@@ -2391,7 +2623,7 @@
         <v>94</v>
       </c>
       <c r="B115" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.35">
@@ -2412,13 +2644,13 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D118" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
@@ -2431,10 +2663,10 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B120" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.35">
@@ -2447,10 +2679,10 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B122" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.35">
@@ -2463,18 +2695,18 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B124" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B125" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.35">
@@ -2493,7 +2725,7 @@
         <v>44</v>
       </c>
       <c r="D127" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
@@ -2506,383 +2738,722 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B129" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D129" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B130" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D130" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B131" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D131" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B132" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D132" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B133" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D133" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B134" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B135" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D135" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B136" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D136" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B137" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D137" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B138" t="s">
-        <v>314</v>
+        <v>372</v>
       </c>
       <c r="D138" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B139" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D139" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B140" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D140" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>271</v>
+        <v>373</v>
       </c>
       <c r="B141" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D141" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B142" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="D142" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B143" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D143" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B144" t="s">
-        <v>295</v>
+        <v>374</v>
       </c>
       <c r="D144" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B145" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="D145" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B146" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="D146" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B147" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D147" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B148" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="D148" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="B149" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="D149" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B150" t="s">
-        <v>302</v>
+        <v>296</v>
+      </c>
+      <c r="D150" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B151" t="s">
-        <v>303</v>
+        <v>297</v>
+      </c>
+      <c r="D151" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B152" t="s">
-        <v>304</v>
+        <v>298</v>
+      </c>
+      <c r="D152" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B153" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="D153" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B154" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="D154" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B155" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="D155" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B156" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D156" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B157" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B158" t="s">
-        <v>285</v>
+        <v>371</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B159" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="D159" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>287</v>
+        <v>378</v>
       </c>
       <c r="B160" t="s">
-        <v>312</v>
+        <v>306</v>
+      </c>
+      <c r="C160" t="s">
+        <v>375</v>
       </c>
       <c r="D160" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B161" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B162" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="B163" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="B164" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="D164" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
+        <v>312</v>
+      </c>
+      <c r="B165" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A166" t="s">
+        <v>314</v>
+      </c>
+      <c r="B166" t="s">
+        <v>315</v>
+      </c>
+      <c r="D166" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A167" t="s">
+        <v>316</v>
+      </c>
+      <c r="B167" t="s">
+        <v>318</v>
+      </c>
+      <c r="D167" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
+        <v>317</v>
+      </c>
+      <c r="B168" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A169" t="s">
         <v>319</v>
       </c>
-      <c r="B165" t="s">
+      <c r="B169" t="s">
         <v>320</v>
       </c>
+      <c r="D169" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
+        <v>321</v>
+      </c>
+      <c r="B170" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
+        <v>322</v>
+      </c>
+      <c r="B171" t="s">
+        <v>365</v>
+      </c>
+      <c r="C171" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
+        <v>324</v>
+      </c>
+      <c r="B172" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A173" t="s">
+        <v>325</v>
+      </c>
+      <c r="B173" t="s">
+        <v>342</v>
+      </c>
+      <c r="D173" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
+        <v>326</v>
+      </c>
+      <c r="B174" t="s">
+        <v>343</v>
+      </c>
+      <c r="D174" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A175" t="s">
+        <v>327</v>
+      </c>
+      <c r="B175" t="s">
+        <v>344</v>
+      </c>
+      <c r="D175" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A176" t="s">
+        <v>328</v>
+      </c>
+      <c r="B176" t="s">
+        <v>364</v>
+      </c>
+      <c r="D176" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A177" t="s">
+        <v>329</v>
+      </c>
+      <c r="B177" t="s">
+        <v>345</v>
+      </c>
+      <c r="D177" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A178" t="s">
+        <v>330</v>
+      </c>
+      <c r="B178" t="s">
+        <v>346</v>
+      </c>
+      <c r="D178" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A179" t="s">
+        <v>331</v>
+      </c>
+      <c r="B179" t="s">
+        <v>347</v>
+      </c>
+      <c r="D179" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A180" t="s">
+        <v>332</v>
+      </c>
+      <c r="B180" t="s">
+        <v>348</v>
+      </c>
+      <c r="D180" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A181" t="s">
+        <v>333</v>
+      </c>
+      <c r="B181" t="s">
+        <v>349</v>
+      </c>
+      <c r="D181" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A182" t="s">
+        <v>334</v>
+      </c>
+      <c r="B182" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A183" t="s">
+        <v>335</v>
+      </c>
+      <c r="B183" t="s">
+        <v>351</v>
+      </c>
+      <c r="D183" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A184" t="s">
+        <v>336</v>
+      </c>
+      <c r="B184" t="s">
+        <v>352</v>
+      </c>
+      <c r="D184" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A185" t="s">
+        <v>337</v>
+      </c>
+      <c r="B185" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A186" t="s">
+        <v>338</v>
+      </c>
+      <c r="B186" t="s">
+        <v>354</v>
+      </c>
+      <c r="D186" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A187" t="s">
+        <v>355</v>
+      </c>
+      <c r="B187" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A188" t="s">
+        <v>339</v>
+      </c>
+      <c r="B188" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A189" t="s">
+        <v>362</v>
+      </c>
+      <c r="B189" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A190" t="s">
+        <v>357</v>
+      </c>
+      <c r="B190" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A191" t="s">
+        <v>358</v>
+      </c>
+      <c r="B191" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A192" t="s">
+        <v>379</v>
+      </c>
+      <c r="B192" t="s">
+        <v>376</v>
+      </c>
+      <c r="C192" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A193" t="s">
+        <v>380</v>
+      </c>
+      <c r="B193" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A194" t="s">
+        <v>381</v>
+      </c>
+      <c r="B194" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A195" t="s">
+        <v>384</v>
+      </c>
+      <c r="B195" t="s">
+        <v>385</v>
+      </c>
+      <c r="D195" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A196" t="s">
+        <v>386</v>
+      </c>
+      <c r="B196" t="s">
+        <v>387</v>
+      </c>
+      <c r="D196" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A197" t="s">
+        <v>388</v>
+      </c>
+      <c r="B197" t="s">
+        <v>389</v>
+      </c>
+      <c r="D197" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A198" t="s">
+        <v>390</v>
+      </c>
+      <c r="B198" t="s">
+        <v>391</v>
+      </c>
+      <c r="D198" t="s">
+        <v>231</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D165" xr:uid="{62E4F7C6-4E31-4F3B-9BAB-9FBA08532492}"/>
+  <autoFilter ref="A1:D198" xr:uid="{62E4F7C6-4E31-4F3B-9BAB-9FBA08532492}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C128">
     <sortCondition ref="A2:A128"/>
   </sortState>

--- a/Data/Loteria Words for Bingo.xlsx
+++ b/Data/Loteria Words for Bingo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gonza\Desktop\GitHub\SASsy_Bingo\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC381C78-9022-479C-B3E7-DB9EEEF175EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E06A5AF5-34E1-4A7D-8298-D8666CDF0E51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{4010E0BB-E8A8-4FBA-ACBF-0FC14DA3740C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{4010E0BB-E8A8-4FBA-ACBF-0FC14DA3740C}"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="392">
   <si>
     <t>English</t>
   </si>
@@ -1591,7 +1591,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="D144" sqref="D144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1721,91 +1721,91 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>208</v>
+        <v>328</v>
       </c>
       <c r="B15" t="s">
-        <v>209</v>
+        <v>364</v>
+      </c>
+      <c r="D15" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>69</v>
+        <v>208</v>
       </c>
       <c r="B16" t="s">
-        <v>70</v>
+        <v>209</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="B17" t="s">
-        <v>179</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>231</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>148</v>
+        <v>55</v>
       </c>
       <c r="B18" t="s">
-        <v>212</v>
+        <v>179</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>87</v>
+        <v>148</v>
       </c>
       <c r="B19" t="s">
-        <v>189</v>
+        <v>212</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>176</v>
+        <v>87</v>
       </c>
       <c r="B20" t="s">
-        <v>217</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>45</v>
+        <v>176</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="B22" t="s">
-        <v>198</v>
+        <v>46</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>150</v>
+        <v>105</v>
       </c>
       <c r="B23" t="s">
-        <v>151</v>
-      </c>
-      <c r="D23" t="s">
-        <v>231</v>
+        <v>198</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>227</v>
+        <v>302</v>
       </c>
       <c r="B24" t="s">
-        <v>228</v>
+        <v>301</v>
       </c>
       <c r="D24" t="s">
         <v>231</v>
@@ -1813,10 +1813,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>19</v>
+        <v>150</v>
       </c>
       <c r="B25" t="s">
-        <v>211</v>
+        <v>151</v>
       </c>
       <c r="D25" t="s">
         <v>231</v>
@@ -1824,45 +1824,51 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>64</v>
+        <v>321</v>
       </c>
       <c r="B26" t="s">
-        <v>65</v>
-      </c>
-      <c r="D26" t="s">
-        <v>231</v>
+        <v>323</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>66</v>
+        <v>322</v>
       </c>
       <c r="B27" t="s">
-        <v>186</v>
+        <v>365</v>
+      </c>
+      <c r="C27" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>51</v>
+        <v>272</v>
       </c>
       <c r="B28" t="s">
-        <v>52</v>
+        <v>291</v>
+      </c>
+      <c r="D28" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>227</v>
       </c>
       <c r="B29" t="s">
-        <v>28</v>
+        <v>228</v>
+      </c>
+      <c r="D29" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>225</v>
+        <v>19</v>
       </c>
       <c r="B30" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="D30" t="s">
         <v>231</v>
@@ -1870,10 +1876,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="B31" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="D31" t="s">
         <v>231</v>
@@ -1881,37 +1887,37 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>23</v>
+        <v>324</v>
       </c>
       <c r="B32" t="s">
-        <v>24</v>
+        <v>341</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" s="1" t="s">
-        <v>139</v>
+      <c r="A33" t="s">
+        <v>66</v>
       </c>
       <c r="B33" t="s">
-        <v>207</v>
-      </c>
-      <c r="D33" t="s">
-        <v>231</v>
+        <v>186</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>373</v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
+        <v>288</v>
+      </c>
+      <c r="D34" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>49</v>
+        <v>273</v>
       </c>
       <c r="B35" t="s">
-        <v>50</v>
+        <v>292</v>
       </c>
       <c r="D35" t="s">
         <v>231</v>
@@ -1919,26 +1925,29 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>149</v>
+        <v>325</v>
       </c>
       <c r="B36" t="s">
-        <v>220</v>
+        <v>342</v>
+      </c>
+      <c r="D36" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>96</v>
+        <v>51</v>
       </c>
       <c r="B37" t="s">
-        <v>99</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>233</v>
+        <v>331</v>
       </c>
       <c r="B38" t="s">
-        <v>234</v>
+        <v>347</v>
       </c>
       <c r="D38" t="s">
         <v>231</v>
@@ -1946,26 +1955,29 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>130</v>
+        <v>27</v>
       </c>
       <c r="B39" t="s">
-        <v>132</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>60</v>
+        <v>329</v>
       </c>
       <c r="B40" t="s">
-        <v>61</v>
+        <v>345</v>
+      </c>
+      <c r="D40" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>53</v>
+        <v>225</v>
       </c>
       <c r="B41" t="s">
-        <v>54</v>
+        <v>226</v>
       </c>
       <c r="D41" t="s">
         <v>231</v>
@@ -1973,42 +1985,48 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>97</v>
+        <v>381</v>
       </c>
       <c r="B42" t="s">
-        <v>98</v>
+        <v>383</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>92</v>
+        <v>384</v>
       </c>
       <c r="B43" t="s">
-        <v>93</v>
+        <v>385</v>
+      </c>
+      <c r="D43" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>172</v>
+        <v>10</v>
       </c>
       <c r="B44" t="s">
-        <v>174</v>
+        <v>11</v>
+      </c>
+      <c r="D44" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>125</v>
+        <v>23</v>
       </c>
       <c r="B45" t="s">
-        <v>126</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>368</v>
+      <c r="A46" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="B46" t="s">
-        <v>369</v>
+        <v>207</v>
       </c>
       <c r="D46" t="s">
         <v>231</v>
@@ -2016,18 +2034,18 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>123</v>
+        <v>35</v>
       </c>
       <c r="B47" t="s">
-        <v>124</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D48" t="s">
         <v>231</v>
@@ -2035,18 +2053,18 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>164</v>
+        <v>337</v>
       </c>
       <c r="B49" t="s">
-        <v>169</v>
+        <v>353</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>235</v>
+        <v>319</v>
       </c>
       <c r="B50" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="D50" t="s">
         <v>231</v>
@@ -2054,21 +2072,18 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>18</v>
+        <v>149</v>
       </c>
       <c r="B51" t="s">
-        <v>210</v>
-      </c>
-      <c r="D51" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>62</v>
+        <v>275</v>
       </c>
       <c r="B52" t="s">
-        <v>63</v>
+        <v>297</v>
       </c>
       <c r="D52" t="s">
         <v>231</v>
@@ -2076,18 +2091,18 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="B53" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B54" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D54" t="s">
         <v>231</v>
@@ -2095,69 +2110,72 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="B55" t="s">
-        <v>81</v>
+        <v>132</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="B56" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="B57" t="s">
-        <v>91</v>
+        <v>54</v>
+      </c>
+      <c r="D57" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>246</v>
+        <v>97</v>
       </c>
       <c r="B58" t="s">
-        <v>247</v>
-      </c>
-      <c r="D58" t="s">
-        <v>231</v>
+        <v>98</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>88</v>
+        <v>368</v>
       </c>
       <c r="B59" t="s">
-        <v>89</v>
+        <v>369</v>
+      </c>
+      <c r="D59" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="B60" t="s">
-        <v>197</v>
+        <v>93</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>7</v>
+        <v>172</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>174</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>2</v>
+        <v>326</v>
       </c>
       <c r="B62" t="s">
-        <v>3</v>
+        <v>343</v>
       </c>
       <c r="D62" t="s">
         <v>231</v>
@@ -2165,10 +2183,10 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>173</v>
+        <v>268</v>
       </c>
       <c r="B63" t="s">
-        <v>175</v>
+        <v>289</v>
       </c>
       <c r="D63" t="s">
         <v>231</v>
@@ -2176,29 +2194,29 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>218</v>
+        <v>125</v>
       </c>
       <c r="B64" t="s">
-        <v>219</v>
-      </c>
-      <c r="D64" t="s">
-        <v>231</v>
+        <v>126</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>101</v>
+        <v>243</v>
       </c>
       <c r="B65" t="s">
-        <v>191</v>
+        <v>242</v>
+      </c>
+      <c r="D65" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>16</v>
+        <v>282</v>
       </c>
       <c r="B66" t="s">
-        <v>17</v>
+        <v>305</v>
       </c>
       <c r="D66" t="s">
         <v>231</v>
@@ -2206,26 +2224,32 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>194</v>
+        <v>245</v>
       </c>
       <c r="B67" t="s">
-        <v>195</v>
+        <v>244</v>
+      </c>
+      <c r="D67" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>33</v>
+        <v>251</v>
       </c>
       <c r="B68" t="s">
-        <v>34</v>
+        <v>252</v>
+      </c>
+      <c r="D68" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>146</v>
+        <v>253</v>
       </c>
       <c r="B69" t="s">
-        <v>147</v>
+        <v>254</v>
       </c>
       <c r="D69" t="s">
         <v>231</v>
@@ -2233,26 +2257,29 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>37</v>
+        <v>330</v>
       </c>
       <c r="B70" t="s">
-        <v>38</v>
+        <v>346</v>
+      </c>
+      <c r="D70" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>25</v>
+        <v>123</v>
       </c>
       <c r="B71" t="s">
-        <v>26</v>
+        <v>124</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="B72" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="D72" t="s">
         <v>231</v>
@@ -2260,45 +2287,48 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="B73" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>4</v>
+        <v>339</v>
       </c>
       <c r="B74" t="s">
-        <v>5</v>
-      </c>
-      <c r="D74" t="s">
-        <v>231</v>
+        <v>356</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>160</v>
+        <v>314</v>
       </c>
       <c r="B75" t="s">
-        <v>168</v>
+        <v>315</v>
+      </c>
+      <c r="D75" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>156</v>
+        <v>335</v>
       </c>
       <c r="B76" t="s">
-        <v>157</v>
+        <v>351</v>
+      </c>
+      <c r="D76" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>340</v>
+        <v>235</v>
       </c>
       <c r="B77" t="s">
-        <v>370</v>
+        <v>236</v>
       </c>
       <c r="D77" t="s">
         <v>231</v>
@@ -2306,128 +2336,140 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>133</v>
+        <v>18</v>
       </c>
       <c r="B78" t="s">
-        <v>134</v>
+        <v>210</v>
+      </c>
+      <c r="D78" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="B79" t="s">
-        <v>100</v>
+        <v>63</v>
+      </c>
+      <c r="D79" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="B80" t="s">
-        <v>118</v>
+        <v>83</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>144</v>
+        <v>232</v>
       </c>
       <c r="B81" t="s">
-        <v>145</v>
+        <v>237</v>
+      </c>
+      <c r="D81" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>112</v>
+        <v>358</v>
       </c>
       <c r="B83" t="s">
-        <v>113</v>
+        <v>359</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="B84" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>224</v>
+        <v>90</v>
       </c>
       <c r="B85" t="s">
-        <v>223</v>
+        <v>91</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>116</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="C86" t="s">
-        <v>188</v>
+        <v>266</v>
+      </c>
+      <c r="B86" t="s">
+        <v>284</v>
+      </c>
+      <c r="D86" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>84</v>
+        <v>246</v>
       </c>
       <c r="B87" t="s">
-        <v>85</v>
+        <v>247</v>
+      </c>
+      <c r="D87" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="B88" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>249</v>
+        <v>104</v>
       </c>
       <c r="B89" t="s">
-        <v>250</v>
-      </c>
-      <c r="D89" t="s">
-        <v>231</v>
+        <v>197</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>77</v>
+        <v>294</v>
       </c>
       <c r="B90" t="s">
-        <v>248</v>
+        <v>295</v>
+      </c>
+      <c r="D90" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>114</v>
+        <v>7</v>
       </c>
       <c r="B91" t="s">
-        <v>115</v>
+        <v>7</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="B92" t="s">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="D92" t="s">
         <v>231</v>
@@ -2435,144 +2477,162 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>71</v>
+        <v>173</v>
       </c>
       <c r="B93" t="s">
-        <v>72</v>
+        <v>175</v>
+      </c>
+      <c r="D93" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>14</v>
+        <v>286</v>
       </c>
       <c r="B94" t="s">
-        <v>15</v>
-      </c>
-      <c r="D94" t="s">
-        <v>231</v>
+        <v>287</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>165</v>
+        <v>281</v>
       </c>
       <c r="B95" t="s">
-        <v>216</v>
+        <v>371</v>
+      </c>
+      <c r="D95" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>39</v>
+        <v>279</v>
       </c>
       <c r="B96" t="s">
-        <v>40</v>
+        <v>303</v>
+      </c>
+      <c r="D96" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>131</v>
+        <v>218</v>
       </c>
       <c r="B97" t="s">
-        <v>129</v>
+        <v>219</v>
+      </c>
+      <c r="D97" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B98" t="s">
-        <v>107</v>
+        <v>191</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>22</v>
+        <v>255</v>
       </c>
       <c r="B99" t="s">
-        <v>178</v>
+        <v>257</v>
+      </c>
+      <c r="D99" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>127</v>
+        <v>334</v>
       </c>
       <c r="B100" t="s">
-        <v>128</v>
+        <v>350</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="B101" t="s">
-        <v>111</v>
+        <v>17</v>
+      </c>
+      <c r="D101" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>86</v>
+        <v>194</v>
       </c>
       <c r="B102" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>180</v>
+        <v>33</v>
       </c>
       <c r="B103" t="s">
-        <v>182</v>
+        <v>34</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>102</v>
+        <v>146</v>
       </c>
       <c r="B104" t="s">
-        <v>103</v>
+        <v>147</v>
+      </c>
+      <c r="D104" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>141</v>
+        <v>37</v>
       </c>
       <c r="B105" t="s">
-        <v>140</v>
+        <v>38</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>158</v>
+        <v>355</v>
       </c>
       <c r="B106" t="s">
-        <v>159</v>
+        <v>363</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>238</v>
+        <v>25</v>
       </c>
       <c r="B107" t="s">
-        <v>239</v>
-      </c>
-      <c r="D107" t="s">
-        <v>231</v>
+        <v>26</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>6</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>177</v>
+        <v>333</v>
+      </c>
+      <c r="B108" t="s">
+        <v>349</v>
+      </c>
+      <c r="D108" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>154</v>
+        <v>386</v>
       </c>
       <c r="B109" t="s">
-        <v>155</v>
+        <v>387</v>
       </c>
       <c r="D109" t="s">
         <v>231</v>
@@ -2580,201 +2640,213 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>166</v>
+        <v>41</v>
       </c>
       <c r="B110" t="s">
-        <v>167</v>
+        <v>42</v>
+      </c>
+      <c r="D110" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>20</v>
+        <v>181</v>
       </c>
       <c r="B111" t="s">
-        <v>21</v>
+        <v>183</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>135</v>
+        <v>4</v>
       </c>
       <c r="B112" t="s">
-        <v>136</v>
+        <v>5</v>
+      </c>
+      <c r="D112" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>121</v>
+        <v>160</v>
       </c>
       <c r="B113" t="s">
-        <v>122</v>
+        <v>168</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B114" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>94</v>
+        <v>340</v>
       </c>
       <c r="B115" t="s">
-        <v>190</v>
+        <v>370</v>
+      </c>
+      <c r="D115" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>142</v>
+        <v>310</v>
       </c>
       <c r="B116" t="s">
-        <v>143</v>
+        <v>311</v>
+      </c>
+      <c r="D116" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>8</v>
+        <v>133</v>
       </c>
       <c r="B117" t="s">
-        <v>9</v>
+        <v>134</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>240</v>
-      </c>
-      <c r="B118" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="D118" t="s">
-        <v>231</v>
+        <v>95</v>
+      </c>
+      <c r="B118" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>108</v>
+        <v>270</v>
       </c>
       <c r="B119" t="s">
-        <v>109</v>
+        <v>374</v>
+      </c>
+      <c r="D119" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>161</v>
+        <v>117</v>
       </c>
       <c r="B120" t="s">
-        <v>170</v>
+        <v>118</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
       <c r="B121" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>221</v>
+        <v>380</v>
       </c>
       <c r="B122" t="s">
-        <v>222</v>
+        <v>382</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="B123" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>184</v>
+        <v>327</v>
       </c>
       <c r="B124" t="s">
-        <v>185</v>
+        <v>344</v>
+      </c>
+      <c r="D124" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>162</v>
+        <v>388</v>
       </c>
       <c r="B125" t="s">
-        <v>215</v>
+        <v>389</v>
+      </c>
+      <c r="D125" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="B126" t="s">
-        <v>68</v>
+        <v>113</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="B127" t="s">
-        <v>44</v>
-      </c>
-      <c r="D127" t="s">
-        <v>231</v>
+        <v>13</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>73</v>
+        <v>274</v>
       </c>
       <c r="B128" t="s">
-        <v>74</v>
+        <v>296</v>
+      </c>
+      <c r="D128" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
       <c r="B129" t="s">
-        <v>242</v>
-      </c>
-      <c r="D129" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>245</v>
-      </c>
-      <c r="B130" t="s">
-        <v>244</v>
-      </c>
-      <c r="D130" t="s">
-        <v>231</v>
+        <v>116</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C130" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>251</v>
+        <v>84</v>
       </c>
       <c r="B131" t="s">
-        <v>252</v>
-      </c>
-      <c r="D131" t="s">
-        <v>231</v>
+        <v>85</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="B132" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="D132" t="s">
         <v>231</v>
@@ -2782,10 +2854,10 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>255</v>
+        <v>192</v>
       </c>
       <c r="B133" t="s">
-        <v>257</v>
+        <v>293</v>
       </c>
       <c r="D133" t="s">
         <v>231</v>
@@ -2793,21 +2865,21 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="B134" t="s">
-        <v>258</v>
+        <v>300</v>
+      </c>
+      <c r="D134" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>259</v>
+        <v>75</v>
       </c>
       <c r="B135" t="s">
-        <v>260</v>
-      </c>
-      <c r="D135" t="s">
-        <v>231</v>
+        <v>76</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.35">
@@ -2823,10 +2895,10 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="B137" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="D137" t="s">
         <v>231</v>
@@ -2834,43 +2906,34 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>265</v>
+        <v>357</v>
       </c>
       <c r="B138" t="s">
-        <v>372</v>
-      </c>
-      <c r="D138" t="s">
-        <v>231</v>
+        <v>360</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>266</v>
+        <v>77</v>
       </c>
       <c r="B139" t="s">
-        <v>284</v>
-      </c>
-      <c r="D139" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>267</v>
+        <v>114</v>
       </c>
       <c r="B140" t="s">
-        <v>285</v>
-      </c>
-      <c r="D140" t="s">
-        <v>231</v>
+        <v>115</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>373</v>
+        <v>47</v>
       </c>
       <c r="B141" t="s">
-        <v>288</v>
+        <v>48</v>
       </c>
       <c r="D141" t="s">
         <v>231</v>
@@ -2878,32 +2941,29 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>268</v>
+        <v>379</v>
       </c>
       <c r="B142" t="s">
-        <v>289</v>
-      </c>
-      <c r="D142" t="s">
-        <v>231</v>
+        <v>376</v>
+      </c>
+      <c r="C142" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>269</v>
+        <v>71</v>
       </c>
       <c r="B143" t="s">
-        <v>269</v>
-      </c>
-      <c r="D143" t="s">
-        <v>231</v>
+        <v>72</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>270</v>
+        <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>374</v>
+        <v>15</v>
       </c>
       <c r="D144" t="s">
         <v>231</v>
@@ -2911,10 +2971,10 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>271</v>
+        <v>336</v>
       </c>
       <c r="B145" t="s">
-        <v>290</v>
+        <v>352</v>
       </c>
       <c r="D145" t="s">
         <v>231</v>
@@ -2922,21 +2982,18 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>272</v>
+        <v>317</v>
       </c>
       <c r="B146" t="s">
-        <v>291</v>
-      </c>
-      <c r="D146" t="s">
-        <v>231</v>
+        <v>367</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="B147" t="s">
-        <v>292</v>
+        <v>264</v>
       </c>
       <c r="D147" t="s">
         <v>231</v>
@@ -2944,10 +3001,10 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>192</v>
+        <v>283</v>
       </c>
       <c r="B148" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="D148" t="s">
         <v>231</v>
@@ -2955,114 +3012,90 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>294</v>
+        <v>165</v>
       </c>
       <c r="B149" t="s">
-        <v>295</v>
-      </c>
-      <c r="D149" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>274</v>
+        <v>39</v>
       </c>
       <c r="B150" t="s">
-        <v>296</v>
-      </c>
-      <c r="D150" t="s">
-        <v>231</v>
+        <v>40</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>275</v>
+        <v>131</v>
       </c>
       <c r="B151" t="s">
-        <v>297</v>
-      </c>
-      <c r="D151" t="s">
-        <v>231</v>
+        <v>129</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>276</v>
+        <v>106</v>
       </c>
       <c r="B152" t="s">
-        <v>298</v>
-      </c>
-      <c r="D152" t="s">
-        <v>231</v>
+        <v>107</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>277</v>
+        <v>312</v>
       </c>
       <c r="B153" t="s">
-        <v>299</v>
-      </c>
-      <c r="D153" t="s">
-        <v>231</v>
+        <v>313</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>278</v>
+        <v>22</v>
       </c>
       <c r="B154" t="s">
-        <v>300</v>
-      </c>
-      <c r="D154" t="s">
-        <v>231</v>
+        <v>178</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>302</v>
+        <v>362</v>
       </c>
       <c r="B155" t="s">
-        <v>301</v>
-      </c>
-      <c r="D155" t="s">
-        <v>231</v>
+        <v>361</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>279</v>
+        <v>127</v>
       </c>
       <c r="B156" t="s">
-        <v>303</v>
-      </c>
-      <c r="D156" t="s">
-        <v>231</v>
+        <v>128</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>280</v>
+        <v>110</v>
       </c>
       <c r="B157" t="s">
-        <v>304</v>
+        <v>111</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>281</v>
+        <v>86</v>
       </c>
       <c r="B158" t="s">
-        <v>371</v>
+        <v>187</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="B159" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
       <c r="D159" t="s">
         <v>231</v>
@@ -3070,48 +3103,42 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>378</v>
+        <v>180</v>
       </c>
       <c r="B160" t="s">
-        <v>306</v>
-      </c>
-      <c r="C160" t="s">
-        <v>375</v>
-      </c>
-      <c r="D160" t="s">
-        <v>231</v>
+        <v>182</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>283</v>
+        <v>256</v>
       </c>
       <c r="B161" t="s">
-        <v>307</v>
+        <v>258</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>286</v>
+        <v>102</v>
       </c>
       <c r="B162" t="s">
-        <v>287</v>
+        <v>103</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>308</v>
+        <v>141</v>
       </c>
       <c r="B163" t="s">
-        <v>309</v>
+        <v>140</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>310</v>
+        <v>338</v>
       </c>
       <c r="B164" t="s">
-        <v>311</v>
+        <v>354</v>
       </c>
       <c r="D164" t="s">
         <v>231</v>
@@ -3119,18 +3146,18 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>312</v>
+        <v>158</v>
       </c>
       <c r="B165" t="s">
-        <v>313</v>
+        <v>159</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>314</v>
+        <v>238</v>
       </c>
       <c r="B166" t="s">
-        <v>315</v>
+        <v>239</v>
       </c>
       <c r="D166" t="s">
         <v>231</v>
@@ -3138,29 +3165,32 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>316</v>
-      </c>
-      <c r="B167" t="s">
-        <v>318</v>
-      </c>
-      <c r="D167" t="s">
-        <v>231</v>
+        <v>6</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>317</v>
+        <v>154</v>
       </c>
       <c r="B168" t="s">
-        <v>367</v>
+        <v>155</v>
+      </c>
+      <c r="D168" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>319</v>
+        <v>378</v>
       </c>
       <c r="B169" t="s">
-        <v>320</v>
+        <v>306</v>
+      </c>
+      <c r="C169" t="s">
+        <v>375</v>
       </c>
       <c r="D169" t="s">
         <v>231</v>
@@ -3168,48 +3198,48 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>321</v>
+        <v>166</v>
       </c>
       <c r="B170" t="s">
-        <v>323</v>
+        <v>167</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B171" t="s">
-        <v>365</v>
-      </c>
-      <c r="C171" t="s">
-        <v>366</v>
+        <v>318</v>
+      </c>
+      <c r="D171" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>324</v>
+        <v>276</v>
       </c>
       <c r="B172" t="s">
-        <v>341</v>
+        <v>298</v>
+      </c>
+      <c r="D172" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
       <c r="B173" t="s">
-        <v>342</v>
-      </c>
-      <c r="D173" t="s">
-        <v>231</v>
+        <v>309</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>326</v>
+        <v>265</v>
       </c>
       <c r="B174" t="s">
-        <v>343</v>
+        <v>372</v>
       </c>
       <c r="D174" t="s">
         <v>231</v>
@@ -3217,10 +3247,10 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>327</v>
+        <v>259</v>
       </c>
       <c r="B175" t="s">
-        <v>344</v>
+        <v>260</v>
       </c>
       <c r="D175" t="s">
         <v>231</v>
@@ -3228,95 +3258,77 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>328</v>
+        <v>20</v>
       </c>
       <c r="B176" t="s">
-        <v>364</v>
-      </c>
-      <c r="D176" t="s">
-        <v>231</v>
+        <v>21</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>329</v>
+        <v>135</v>
       </c>
       <c r="B177" t="s">
-        <v>345</v>
-      </c>
-      <c r="D177" t="s">
-        <v>231</v>
+        <v>136</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>330</v>
+        <v>121</v>
       </c>
       <c r="B178" t="s">
-        <v>346</v>
-      </c>
-      <c r="D178" t="s">
-        <v>231</v>
+        <v>122</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>331</v>
+        <v>163</v>
       </c>
       <c r="B179" t="s">
-        <v>347</v>
-      </c>
-      <c r="D179" t="s">
-        <v>231</v>
+        <v>171</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>332</v>
+        <v>94</v>
       </c>
       <c r="B180" t="s">
-        <v>348</v>
-      </c>
-      <c r="D180" t="s">
-        <v>231</v>
+        <v>190</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>333</v>
+        <v>142</v>
       </c>
       <c r="B181" t="s">
-        <v>349</v>
-      </c>
-      <c r="D181" t="s">
-        <v>231</v>
+        <v>143</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>334</v>
+        <v>390</v>
       </c>
       <c r="B182" t="s">
-        <v>350</v>
+        <v>391</v>
+      </c>
+      <c r="D182" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>335</v>
+        <v>8</v>
       </c>
       <c r="B183" t="s">
-        <v>351</v>
-      </c>
-      <c r="D183" t="s">
-        <v>231</v>
+        <v>9</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>336</v>
-      </c>
-      <c r="B184" t="s">
-        <v>352</v>
+        <v>240</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>241</v>
       </c>
       <c r="D184" t="s">
         <v>231</v>
@@ -3324,96 +3336,96 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>337</v>
+        <v>108</v>
       </c>
       <c r="B185" t="s">
-        <v>353</v>
+        <v>109</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>338</v>
+        <v>161</v>
       </c>
       <c r="B186" t="s">
-        <v>354</v>
-      </c>
-      <c r="D186" t="s">
-        <v>231</v>
+        <v>170</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>355</v>
+        <v>271</v>
       </c>
       <c r="B187" t="s">
-        <v>363</v>
+        <v>290</v>
+      </c>
+      <c r="D187" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>339</v>
+        <v>119</v>
       </c>
       <c r="B188" t="s">
-        <v>356</v>
+        <v>120</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>362</v>
+        <v>221</v>
       </c>
       <c r="B189" t="s">
-        <v>361</v>
+        <v>222</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>357</v>
+        <v>56</v>
       </c>
       <c r="B190" t="s">
-        <v>360</v>
+        <v>57</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>358</v>
+        <v>184</v>
       </c>
       <c r="B191" t="s">
-        <v>359</v>
+        <v>185</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>379</v>
+        <v>277</v>
       </c>
       <c r="B192" t="s">
-        <v>376</v>
-      </c>
-      <c r="C192" t="s">
-        <v>377</v>
+        <v>299</v>
+      </c>
+      <c r="D192" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>380</v>
+        <v>162</v>
       </c>
       <c r="B193" t="s">
-        <v>382</v>
+        <v>215</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>381</v>
+        <v>67</v>
       </c>
       <c r="B194" t="s">
-        <v>383</v>
+        <v>68</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>384</v>
+        <v>332</v>
       </c>
       <c r="B195" t="s">
-        <v>385</v>
+        <v>348</v>
       </c>
       <c r="D195" t="s">
         <v>231</v>
@@ -3421,21 +3433,18 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>386</v>
+        <v>280</v>
       </c>
       <c r="B196" t="s">
-        <v>387</v>
-      </c>
-      <c r="D196" t="s">
-        <v>231</v>
+        <v>304</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>388</v>
+        <v>43</v>
       </c>
       <c r="B197" t="s">
-        <v>389</v>
+        <v>44</v>
       </c>
       <c r="D197" t="s">
         <v>231</v>
@@ -3443,19 +3452,16 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
-        <v>390</v>
+        <v>73</v>
       </c>
       <c r="B198" t="s">
-        <v>391</v>
-      </c>
-      <c r="D198" t="s">
-        <v>231</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D198" xr:uid="{62E4F7C6-4E31-4F3B-9BAB-9FBA08532492}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C128">
-    <sortCondition ref="A2:A128"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D198">
+    <sortCondition ref="A2:A198"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Data/Loteria Words for Bingo.xlsx
+++ b/Data/Loteria Words for Bingo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gonza\Desktop\GitHub\SASsy_Bingo\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E06A5AF5-34E1-4A7D-8298-D8666CDF0E51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CAB3AB7-674D-4C1B-AC70-AEC903D2AE7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{4010E0BB-E8A8-4FBA-ACBF-0FC14DA3740C}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="items" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">items!$A$1:$D$198</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">items!$A$1:$D$203</definedName>
   </definedNames>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="399">
   <si>
     <t>English</t>
   </si>
@@ -310,12 +310,6 @@
     <t>cabeza</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>mano</t>
-  </si>
-  <si>
     <t>fingers</t>
   </si>
   <si>
@@ -604,9 +598,6 @@
     <t>fútbol</t>
   </si>
   <si>
-    <t>ask Dinorath which is more common</t>
-  </si>
-  <si>
     <t>béisbol</t>
   </si>
   <si>
@@ -637,9 +628,6 @@
     <t>el cuarto</t>
   </si>
   <si>
-    <t>bolígrafo o lápiz o pluma</t>
-  </si>
-  <si>
     <t>veinte</t>
   </si>
   <si>
@@ -952,9 +940,6 @@
     <t>jalapeños</t>
   </si>
   <si>
-    <t>vine</t>
-  </si>
-  <si>
     <t>chancletas</t>
   </si>
   <si>
@@ -1003,15 +988,9 @@
     <t>puerta</t>
   </si>
   <si>
-    <t>bird</t>
-  </si>
-  <si>
     <t>birdhouse</t>
   </si>
   <si>
-    <t>pájaro</t>
-  </si>
-  <si>
     <t>bridge</t>
   </si>
   <si>
@@ -1138,9 +1117,6 @@
     <t>casita para pájaros</t>
   </si>
   <si>
-    <t>pajarera - ask Dinorath</t>
-  </si>
-  <si>
     <t>la vela</t>
   </si>
   <si>
@@ -1165,33 +1141,18 @@
     <t>el océano</t>
   </si>
   <si>
-    <t>for the sun</t>
-  </si>
-  <si>
     <t>el paraguas</t>
   </si>
   <si>
-    <t>for the rain</t>
-  </si>
-  <si>
     <t>sun umbrellas</t>
   </si>
   <si>
-    <t>rain umbrellas</t>
-  </si>
-  <si>
     <t>open</t>
   </si>
   <si>
-    <t>close</t>
-  </si>
-  <si>
     <t>abierto</t>
   </si>
   <si>
-    <t>cierra</t>
-  </si>
-  <si>
     <t>coconut</t>
   </si>
   <si>
@@ -1214,6 +1175,66 @@
   </si>
   <si>
     <t>toallas</t>
+  </si>
+  <si>
+    <t>rain umbrella</t>
+  </si>
+  <si>
+    <t>gazebo</t>
+  </si>
+  <si>
+    <t>ask Dinorath</t>
+  </si>
+  <si>
+    <t>el cenador</t>
+  </si>
+  <si>
+    <t>vino</t>
+  </si>
+  <si>
+    <t>pencil</t>
+  </si>
+  <si>
+    <t>hands</t>
+  </si>
+  <si>
+    <t>manos</t>
+  </si>
+  <si>
+    <t>eraser</t>
+  </si>
+  <si>
+    <t>lápiz</t>
+  </si>
+  <si>
+    <t>borrador</t>
+  </si>
+  <si>
+    <t>elephant</t>
+  </si>
+  <si>
+    <t>elefante</t>
+  </si>
+  <si>
+    <t>bolígrafo</t>
+  </si>
+  <si>
+    <t>bird feeder</t>
+  </si>
+  <si>
+    <t>comedero para pájaros</t>
+  </si>
+  <si>
+    <t>birds</t>
+  </si>
+  <si>
+    <t>pájaros</t>
+  </si>
+  <si>
+    <t>cerrado</t>
+  </si>
+  <si>
+    <t>closed</t>
   </si>
 </sst>
 </file>
@@ -1587,11 +1608,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62E4F7C6-4E31-4F3B-9BAB-9FBA08532492}">
-  <dimension ref="A1:D198"/>
+  <dimension ref="A1:D203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D144" sqref="D144"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1609,10 +1630,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -1620,7 +1641,7 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -1628,7 +1649,7 @@
         <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -1636,7 +1657,7 @@
         <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -1644,7 +1665,7 @@
         <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -1652,7 +1673,7 @@
         <v>60</v>
       </c>
       <c r="B6" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -1660,7 +1681,7 @@
         <v>70</v>
       </c>
       <c r="B7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -1668,7 +1689,7 @@
         <v>80</v>
       </c>
       <c r="B8" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -1676,7 +1697,7 @@
         <v>90</v>
       </c>
       <c r="B9" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -1684,23 +1705,23 @@
         <v>100</v>
       </c>
       <c r="B10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B11" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
@@ -1713,29 +1734,29 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>190</v>
+      </c>
+      <c r="B14" t="s">
         <v>193</v>
-      </c>
-      <c r="B14" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="B15" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="D15" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B16" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
@@ -1751,18 +1772,18 @@
         <v>55</v>
       </c>
       <c r="B18" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B19" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
@@ -1770,15 +1791,15 @@
         <v>87</v>
       </c>
       <c r="B20" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B21" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
@@ -1789,1679 +1810,1767 @@
         <v>46</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B23" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B24" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D24" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B25" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D25" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>321</v>
+        <v>393</v>
       </c>
       <c r="B26" t="s">
-        <v>323</v>
+        <v>394</v>
+      </c>
+      <c r="D26" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B27" t="s">
-        <v>365</v>
-      </c>
-      <c r="C27" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>272</v>
+        <v>395</v>
       </c>
       <c r="B28" t="s">
-        <v>291</v>
+        <v>396</v>
       </c>
       <c r="D28" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>227</v>
+        <v>268</v>
       </c>
       <c r="B29" t="s">
-        <v>228</v>
+        <v>287</v>
       </c>
       <c r="D29" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>19</v>
+        <v>223</v>
       </c>
       <c r="B30" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="D30" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="B31" t="s">
-        <v>65</v>
+        <v>207</v>
       </c>
       <c r="D31" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>324</v>
+        <v>64</v>
       </c>
       <c r="B32" t="s">
-        <v>341</v>
+        <v>65</v>
+      </c>
+      <c r="D32" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>66</v>
+        <v>317</v>
       </c>
       <c r="B33" t="s">
-        <v>186</v>
+        <v>334</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>373</v>
+        <v>66</v>
       </c>
       <c r="B34" t="s">
-        <v>288</v>
-      </c>
-      <c r="D34" t="s">
-        <v>231</v>
+        <v>184</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>273</v>
+        <v>365</v>
       </c>
       <c r="B35" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="D35" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>325</v>
+        <v>269</v>
       </c>
       <c r="B36" t="s">
-        <v>342</v>
+        <v>288</v>
       </c>
       <c r="D36" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>51</v>
+        <v>318</v>
       </c>
       <c r="B37" t="s">
-        <v>52</v>
+        <v>335</v>
+      </c>
+      <c r="D37" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>331</v>
+        <v>51</v>
       </c>
       <c r="B38" t="s">
-        <v>347</v>
-      </c>
-      <c r="D38" t="s">
-        <v>231</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>27</v>
+        <v>324</v>
       </c>
       <c r="B39" t="s">
-        <v>28</v>
+        <v>340</v>
+      </c>
+      <c r="D39" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>329</v>
+        <v>27</v>
       </c>
       <c r="B40" t="s">
-        <v>345</v>
-      </c>
-      <c r="D40" t="s">
-        <v>231</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>225</v>
+        <v>322</v>
       </c>
       <c r="B41" t="s">
-        <v>226</v>
+        <v>338</v>
       </c>
       <c r="D41" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>381</v>
+        <v>221</v>
       </c>
       <c r="B42" t="s">
-        <v>383</v>
+        <v>222</v>
+      </c>
+      <c r="D42" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>384</v>
+        <v>398</v>
       </c>
       <c r="B43" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="D43" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>10</v>
+        <v>371</v>
       </c>
       <c r="B44" t="s">
-        <v>11</v>
+        <v>372</v>
       </c>
       <c r="D44" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
         <v>23</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B46" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B46" t="s">
-        <v>207</v>
-      </c>
-      <c r="D46" t="s">
-        <v>231</v>
-      </c>
-    </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>35</v>
+      <c r="A47" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="B47" t="s">
-        <v>36</v>
+        <v>203</v>
+      </c>
+      <c r="D47" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B48" t="s">
-        <v>50</v>
-      </c>
-      <c r="D48" t="s">
-        <v>231</v>
+        <v>36</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>337</v>
+        <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>353</v>
+        <v>50</v>
+      </c>
+      <c r="D49" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="B50" t="s">
-        <v>320</v>
-      </c>
-      <c r="D50" t="s">
-        <v>231</v>
+        <v>346</v>
+      </c>
+      <c r="C50" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="B51" t="s">
-        <v>220</v>
+        <v>315</v>
+      </c>
+      <c r="D51" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>275</v>
+        <v>147</v>
       </c>
       <c r="B52" t="s">
-        <v>297</v>
-      </c>
-      <c r="D52" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>96</v>
+        <v>271</v>
       </c>
       <c r="B53" t="s">
-        <v>99</v>
+        <v>293</v>
+      </c>
+      <c r="D53" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>233</v>
+        <v>94</v>
       </c>
       <c r="B54" t="s">
-        <v>234</v>
-      </c>
-      <c r="D54" t="s">
-        <v>231</v>
+        <v>97</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>130</v>
+        <v>229</v>
       </c>
       <c r="B55" t="s">
-        <v>132</v>
+        <v>230</v>
+      </c>
+      <c r="D55" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>60</v>
+        <v>128</v>
       </c>
       <c r="B56" t="s">
-        <v>61</v>
+        <v>130</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>53</v>
+        <v>390</v>
       </c>
       <c r="B57" t="s">
-        <v>54</v>
+        <v>391</v>
       </c>
       <c r="D57" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="B58" t="s">
-        <v>98</v>
+        <v>61</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="B59" t="s">
-        <v>369</v>
+        <v>389</v>
       </c>
       <c r="D59" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="B60" t="s">
-        <v>93</v>
+        <v>54</v>
+      </c>
+      <c r="D60" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>172</v>
+        <v>95</v>
       </c>
       <c r="B61" t="s">
-        <v>174</v>
+        <v>96</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>326</v>
+        <v>360</v>
       </c>
       <c r="B62" t="s">
-        <v>343</v>
+        <v>361</v>
       </c>
       <c r="D62" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>268</v>
+        <v>90</v>
       </c>
       <c r="B63" t="s">
-        <v>289</v>
-      </c>
-      <c r="D63" t="s">
-        <v>231</v>
+        <v>91</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>125</v>
+        <v>170</v>
       </c>
       <c r="B64" t="s">
-        <v>126</v>
+        <v>172</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>243</v>
+        <v>319</v>
       </c>
       <c r="B65" t="s">
-        <v>242</v>
+        <v>336</v>
       </c>
       <c r="D65" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="B66" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
       <c r="D66" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>245</v>
+        <v>123</v>
       </c>
       <c r="B67" t="s">
-        <v>244</v>
-      </c>
-      <c r="D67" t="s">
-        <v>231</v>
+        <v>124</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="B68" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="D68" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
       <c r="B69" t="s">
-        <v>254</v>
+        <v>300</v>
       </c>
       <c r="D69" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>330</v>
+        <v>241</v>
       </c>
       <c r="B70" t="s">
-        <v>346</v>
+        <v>240</v>
       </c>
       <c r="D70" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>123</v>
+        <v>247</v>
       </c>
       <c r="B71" t="s">
-        <v>124</v>
+        <v>248</v>
+      </c>
+      <c r="D71" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>58</v>
+        <v>249</v>
       </c>
       <c r="B72" t="s">
-        <v>59</v>
+        <v>250</v>
       </c>
       <c r="D72" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>164</v>
+        <v>323</v>
       </c>
       <c r="B73" t="s">
-        <v>169</v>
+        <v>339</v>
+      </c>
+      <c r="D73" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>339</v>
+        <v>121</v>
       </c>
       <c r="B74" t="s">
-        <v>356</v>
+        <v>122</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>314</v>
+        <v>58</v>
       </c>
       <c r="B75" t="s">
-        <v>315</v>
+        <v>59</v>
       </c>
       <c r="D75" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>335</v>
+        <v>162</v>
       </c>
       <c r="B76" t="s">
-        <v>351</v>
-      </c>
-      <c r="D76" t="s">
-        <v>231</v>
+        <v>167</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>235</v>
+        <v>332</v>
       </c>
       <c r="B77" t="s">
-        <v>236</v>
-      </c>
-      <c r="D77" t="s">
-        <v>231</v>
+        <v>349</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>18</v>
+        <v>309</v>
       </c>
       <c r="B78" t="s">
-        <v>210</v>
+        <v>310</v>
       </c>
       <c r="D78" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>62</v>
+        <v>328</v>
       </c>
       <c r="B79" t="s">
-        <v>63</v>
+        <v>344</v>
       </c>
       <c r="D79" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>82</v>
+        <v>380</v>
       </c>
       <c r="B80" t="s">
-        <v>83</v>
+        <v>382</v>
+      </c>
+      <c r="C80" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
+        <v>231</v>
+      </c>
+      <c r="B81" t="s">
         <v>232</v>
       </c>
-      <c r="B81" t="s">
-        <v>237</v>
-      </c>
       <c r="D81" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="B82" t="s">
-        <v>81</v>
+        <v>206</v>
+      </c>
+      <c r="D82" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>358</v>
+        <v>62</v>
       </c>
       <c r="B83" t="s">
-        <v>359</v>
+        <v>63</v>
+      </c>
+      <c r="D83" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>90</v>
+        <v>228</v>
       </c>
       <c r="B85" t="s">
-        <v>91</v>
+        <v>233</v>
+      </c>
+      <c r="D85" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>266</v>
+        <v>80</v>
       </c>
       <c r="B86" t="s">
-        <v>284</v>
-      </c>
-      <c r="D86" t="s">
-        <v>231</v>
+        <v>81</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>246</v>
+        <v>351</v>
       </c>
       <c r="B87" t="s">
-        <v>247</v>
+        <v>352</v>
       </c>
       <c r="D87" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B88" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>104</v>
+        <v>385</v>
       </c>
       <c r="B89" t="s">
-        <v>197</v>
+        <v>386</v>
+      </c>
+      <c r="D89" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>294</v>
+        <v>262</v>
       </c>
       <c r="B90" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="D90" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>7</v>
+        <v>242</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>243</v>
+      </c>
+      <c r="D91" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>2</v>
+        <v>88</v>
       </c>
       <c r="B92" t="s">
-        <v>3</v>
-      </c>
-      <c r="D92" t="s">
-        <v>231</v>
+        <v>89</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>173</v>
+        <v>102</v>
       </c>
       <c r="B93" t="s">
-        <v>175</v>
-      </c>
-      <c r="D93" t="s">
-        <v>231</v>
+        <v>194</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B94" t="s">
-        <v>287</v>
+        <v>291</v>
+      </c>
+      <c r="D94" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>281</v>
+        <v>7</v>
       </c>
       <c r="B95" t="s">
-        <v>371</v>
-      </c>
-      <c r="D95" t="s">
-        <v>231</v>
+        <v>7</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>279</v>
+        <v>2</v>
       </c>
       <c r="B96" t="s">
-        <v>303</v>
+        <v>3</v>
       </c>
       <c r="D96" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>218</v>
+        <v>171</v>
       </c>
       <c r="B97" t="s">
-        <v>219</v>
+        <v>173</v>
       </c>
       <c r="D97" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>101</v>
+        <v>282</v>
       </c>
       <c r="B98" t="s">
-        <v>191</v>
+        <v>283</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>255</v>
+        <v>277</v>
       </c>
       <c r="B99" t="s">
-        <v>257</v>
+        <v>363</v>
       </c>
       <c r="D99" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>334</v>
+        <v>275</v>
       </c>
       <c r="B100" t="s">
-        <v>350</v>
+        <v>299</v>
+      </c>
+      <c r="D100" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>16</v>
+        <v>214</v>
       </c>
       <c r="B101" t="s">
-        <v>17</v>
+        <v>215</v>
       </c>
       <c r="D101" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>194</v>
+        <v>99</v>
       </c>
       <c r="B102" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>33</v>
+        <v>251</v>
       </c>
       <c r="B103" t="s">
-        <v>34</v>
+        <v>253</v>
+      </c>
+      <c r="D103" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>146</v>
+        <v>327</v>
       </c>
       <c r="B104" t="s">
-        <v>147</v>
+        <v>343</v>
       </c>
       <c r="D104" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="B105" t="s">
-        <v>38</v>
+        <v>17</v>
+      </c>
+      <c r="D105" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>355</v>
+        <v>191</v>
       </c>
       <c r="B106" t="s">
-        <v>363</v>
+        <v>192</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B107" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>333</v>
+        <v>144</v>
       </c>
       <c r="B108" t="s">
-        <v>349</v>
+        <v>145</v>
       </c>
       <c r="D108" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>386</v>
+        <v>37</v>
       </c>
       <c r="B109" t="s">
-        <v>387</v>
-      </c>
-      <c r="D109" t="s">
-        <v>231</v>
+        <v>38</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>41</v>
+        <v>348</v>
       </c>
       <c r="B110" t="s">
-        <v>42</v>
+        <v>356</v>
       </c>
       <c r="D110" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>181</v>
+        <v>25</v>
       </c>
       <c r="B111" t="s">
-        <v>183</v>
+        <v>26</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>4</v>
+        <v>326</v>
       </c>
       <c r="B112" t="s">
-        <v>5</v>
+        <v>342</v>
       </c>
       <c r="D112" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>160</v>
+        <v>373</v>
       </c>
       <c r="B113" t="s">
-        <v>168</v>
+        <v>374</v>
+      </c>
+      <c r="D113" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>156</v>
+        <v>41</v>
       </c>
       <c r="B114" t="s">
-        <v>157</v>
+        <v>42</v>
+      </c>
+      <c r="D114" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>340</v>
+        <v>179</v>
       </c>
       <c r="B115" t="s">
-        <v>370</v>
-      </c>
-      <c r="D115" t="s">
-        <v>231</v>
+        <v>181</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>310</v>
+        <v>4</v>
       </c>
       <c r="B116" t="s">
-        <v>311</v>
+        <v>5</v>
       </c>
       <c r="D116" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
       <c r="B117" t="s">
-        <v>134</v>
+        <v>166</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>95</v>
+        <v>154</v>
       </c>
       <c r="B118" t="s">
-        <v>100</v>
+        <v>155</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>270</v>
+        <v>333</v>
       </c>
       <c r="B119" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="D119" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>117</v>
+        <v>305</v>
       </c>
       <c r="B120" t="s">
-        <v>118</v>
+        <v>306</v>
+      </c>
+      <c r="D120" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="B121" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>380</v>
+        <v>93</v>
       </c>
       <c r="B122" t="s">
-        <v>382</v>
+        <v>98</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>31</v>
+        <v>266</v>
       </c>
       <c r="B123" t="s">
-        <v>32</v>
+        <v>366</v>
+      </c>
+      <c r="D123" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>327</v>
+        <v>115</v>
       </c>
       <c r="B124" t="s">
-        <v>344</v>
-      </c>
-      <c r="D124" t="s">
-        <v>231</v>
+        <v>116</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>388</v>
+        <v>142</v>
       </c>
       <c r="B125" t="s">
-        <v>389</v>
-      </c>
-      <c r="D125" t="s">
-        <v>231</v>
+        <v>143</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>112</v>
+        <v>369</v>
       </c>
       <c r="B126" t="s">
-        <v>113</v>
+        <v>370</v>
+      </c>
+      <c r="D126" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="B127" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>274</v>
+        <v>320</v>
       </c>
       <c r="B128" t="s">
-        <v>296</v>
+        <v>337</v>
       </c>
       <c r="D128" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>224</v>
+        <v>375</v>
       </c>
       <c r="B129" t="s">
-        <v>223</v>
+        <v>376</v>
+      </c>
+      <c r="D129" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>116</v>
-      </c>
-      <c r="B130" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="C130" t="s">
-        <v>188</v>
+        <v>110</v>
+      </c>
+      <c r="B130" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="B131" t="s">
-        <v>85</v>
+        <v>13</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B132" t="s">
-        <v>269</v>
+        <v>292</v>
       </c>
       <c r="D132" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>192</v>
+        <v>220</v>
       </c>
       <c r="B133" t="s">
-        <v>293</v>
-      </c>
-      <c r="D133" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>278</v>
-      </c>
-      <c r="B134" t="s">
-        <v>300</v>
+        <v>114</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>392</v>
       </c>
       <c r="D134" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>75</v>
+        <v>384</v>
       </c>
       <c r="B135" t="s">
-        <v>76</v>
+        <v>388</v>
+      </c>
+      <c r="D135" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>261</v>
+        <v>84</v>
       </c>
       <c r="B136" t="s">
-        <v>262</v>
-      </c>
-      <c r="D136" t="s">
-        <v>231</v>
+        <v>85</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="B137" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="D137" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>357</v>
+        <v>189</v>
       </c>
       <c r="B138" t="s">
-        <v>360</v>
+        <v>289</v>
+      </c>
+      <c r="D138" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>77</v>
+        <v>274</v>
       </c>
       <c r="B139" t="s">
-        <v>248</v>
+        <v>296</v>
+      </c>
+      <c r="D139" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="B140" t="s">
-        <v>115</v>
+        <v>76</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>47</v>
+        <v>257</v>
       </c>
       <c r="B141" t="s">
-        <v>48</v>
+        <v>258</v>
       </c>
       <c r="D141" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>379</v>
+        <v>245</v>
       </c>
       <c r="B142" t="s">
-        <v>376</v>
-      </c>
-      <c r="C142" t="s">
-        <v>377</v>
+        <v>246</v>
+      </c>
+      <c r="D142" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>71</v>
+        <v>350</v>
       </c>
       <c r="B143" t="s">
-        <v>72</v>
+        <v>353</v>
+      </c>
+      <c r="D143" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="B144" t="s">
-        <v>15</v>
-      </c>
-      <c r="D144" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>336</v>
+        <v>112</v>
       </c>
       <c r="B145" t="s">
-        <v>352</v>
-      </c>
-      <c r="D145" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>317</v>
+        <v>47</v>
       </c>
       <c r="B146" t="s">
-        <v>367</v>
+        <v>48</v>
+      </c>
+      <c r="D146" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>263</v>
+        <v>379</v>
       </c>
       <c r="B147" t="s">
-        <v>264</v>
+        <v>367</v>
       </c>
       <c r="D147" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>283</v>
+        <v>71</v>
       </c>
       <c r="B148" t="s">
-        <v>307</v>
-      </c>
-      <c r="D148" t="s">
-        <v>231</v>
+        <v>72</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>165</v>
+        <v>14</v>
       </c>
       <c r="B149" t="s">
-        <v>216</v>
+        <v>15</v>
+      </c>
+      <c r="D149" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>39</v>
+        <v>329</v>
       </c>
       <c r="B150" t="s">
-        <v>40</v>
+        <v>345</v>
+      </c>
+      <c r="D150" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>131</v>
+        <v>312</v>
       </c>
       <c r="B151" t="s">
-        <v>129</v>
+        <v>359</v>
+      </c>
+      <c r="D151" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>106</v>
+        <v>259</v>
       </c>
       <c r="B152" t="s">
-        <v>107</v>
+        <v>260</v>
+      </c>
+      <c r="D152" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>312</v>
+        <v>279</v>
       </c>
       <c r="B153" t="s">
-        <v>313</v>
+        <v>302</v>
+      </c>
+      <c r="D153" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>22</v>
+        <v>163</v>
       </c>
       <c r="B154" t="s">
-        <v>178</v>
+        <v>212</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>362</v>
+        <v>39</v>
       </c>
       <c r="B155" t="s">
-        <v>361</v>
+        <v>40</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
+        <v>129</v>
+      </c>
+      <c r="B156" t="s">
         <v>127</v>
-      </c>
-      <c r="B156" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B157" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>86</v>
+        <v>307</v>
       </c>
       <c r="B158" t="s">
-        <v>187</v>
+        <v>308</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>267</v>
+        <v>22</v>
       </c>
       <c r="B159" t="s">
-        <v>285</v>
-      </c>
-      <c r="D159" t="s">
-        <v>231</v>
+        <v>176</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>180</v>
+        <v>355</v>
       </c>
       <c r="B160" t="s">
-        <v>182</v>
+        <v>354</v>
+      </c>
+      <c r="D160" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>256</v>
+        <v>125</v>
       </c>
       <c r="B161" t="s">
-        <v>258</v>
+        <v>126</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B162" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>141</v>
+        <v>86</v>
       </c>
       <c r="B163" t="s">
-        <v>140</v>
+        <v>185</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>338</v>
+        <v>263</v>
       </c>
       <c r="B164" t="s">
-        <v>354</v>
+        <v>281</v>
       </c>
       <c r="D164" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="B165" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="B166" t="s">
-        <v>239</v>
-      </c>
-      <c r="D166" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>6</v>
-      </c>
-      <c r="B167" s="3" t="s">
-        <v>177</v>
+        <v>100</v>
+      </c>
+      <c r="B167" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="B168" t="s">
-        <v>155</v>
-      </c>
-      <c r="D168" t="s">
-        <v>231</v>
+        <v>138</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>378</v>
+        <v>331</v>
       </c>
       <c r="B169" t="s">
-        <v>306</v>
-      </c>
-      <c r="C169" t="s">
-        <v>375</v>
+        <v>347</v>
       </c>
       <c r="D169" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="B170" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>316</v>
+        <v>234</v>
       </c>
       <c r="B171" t="s">
-        <v>318</v>
+        <v>235</v>
       </c>
       <c r="D171" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>276</v>
-      </c>
-      <c r="B172" t="s">
-        <v>298</v>
-      </c>
-      <c r="D172" t="s">
-        <v>231</v>
+        <v>6</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>308</v>
+        <v>152</v>
       </c>
       <c r="B173" t="s">
-        <v>309</v>
+        <v>153</v>
+      </c>
+      <c r="D173" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>265</v>
+        <v>368</v>
       </c>
       <c r="B174" t="s">
-        <v>372</v>
+        <v>301</v>
       </c>
       <c r="D174" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>259</v>
+        <v>164</v>
       </c>
       <c r="B175" t="s">
-        <v>260</v>
-      </c>
-      <c r="D175" t="s">
-        <v>231</v>
+        <v>165</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>20</v>
+        <v>311</v>
       </c>
       <c r="B176" t="s">
-        <v>21</v>
+        <v>313</v>
+      </c>
+      <c r="D176" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>135</v>
+        <v>272</v>
       </c>
       <c r="B177" t="s">
-        <v>136</v>
+        <v>294</v>
+      </c>
+      <c r="D177" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>121</v>
+        <v>303</v>
       </c>
       <c r="B178" t="s">
-        <v>122</v>
+        <v>304</v>
+      </c>
+      <c r="D178" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>163</v>
+        <v>261</v>
       </c>
       <c r="B179" t="s">
-        <v>171</v>
+        <v>364</v>
+      </c>
+      <c r="D179" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>94</v>
+        <v>255</v>
       </c>
       <c r="B180" t="s">
-        <v>190</v>
+        <v>256</v>
+      </c>
+      <c r="D180" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>142</v>
+        <v>20</v>
       </c>
       <c r="B181" t="s">
-        <v>143</v>
+        <v>21</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>390</v>
+        <v>133</v>
       </c>
       <c r="B182" t="s">
-        <v>391</v>
-      </c>
-      <c r="D182" t="s">
-        <v>231</v>
+        <v>134</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>8</v>
+        <v>119</v>
       </c>
       <c r="B183" t="s">
-        <v>9</v>
+        <v>120</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>240</v>
-      </c>
-      <c r="B184" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="D184" t="s">
-        <v>231</v>
+        <v>161</v>
+      </c>
+      <c r="B184" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="B185" t="s">
-        <v>109</v>
+        <v>187</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="B186" t="s">
-        <v>170</v>
+        <v>141</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>271</v>
+        <v>377</v>
       </c>
       <c r="B187" t="s">
-        <v>290</v>
+        <v>378</v>
       </c>
       <c r="D187" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>119</v>
+        <v>8</v>
       </c>
       <c r="B188" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>221</v>
-      </c>
-      <c r="B189" t="s">
-        <v>222</v>
+        <v>236</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D189" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="B190" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="B191" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="B192" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="D192" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>162</v>
+        <v>117</v>
       </c>
       <c r="B193" t="s">
-        <v>215</v>
+        <v>118</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>67</v>
+        <v>217</v>
       </c>
       <c r="B194" t="s">
-        <v>68</v>
+        <v>218</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>332</v>
+        <v>56</v>
       </c>
       <c r="B195" t="s">
-        <v>348</v>
-      </c>
-      <c r="D195" t="s">
-        <v>231</v>
+        <v>57</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>280</v>
+        <v>182</v>
       </c>
       <c r="B196" t="s">
-        <v>304</v>
+        <v>183</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>43</v>
+        <v>273</v>
       </c>
       <c r="B197" t="s">
-        <v>44</v>
+        <v>295</v>
       </c>
       <c r="D197" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
+        <v>160</v>
+      </c>
+      <c r="B198" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A199" t="s">
+        <v>67</v>
+      </c>
+      <c r="B199" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A200" t="s">
+        <v>325</v>
+      </c>
+      <c r="B200" t="s">
+        <v>341</v>
+      </c>
+      <c r="D200" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A201" t="s">
+        <v>276</v>
+      </c>
+      <c r="B201" t="s">
+        <v>383</v>
+      </c>
+      <c r="D201" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A202" t="s">
+        <v>43</v>
+      </c>
+      <c r="B202" t="s">
+        <v>44</v>
+      </c>
+      <c r="D202" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A203" t="s">
         <v>73</v>
       </c>
-      <c r="B198" t="s">
+      <c r="B203" t="s">
         <v>74</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D198" xr:uid="{62E4F7C6-4E31-4F3B-9BAB-9FBA08532492}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D198">
-    <sortCondition ref="A2:A198"/>
+  <autoFilter ref="A1:D203" xr:uid="{62E4F7C6-4E31-4F3B-9BAB-9FBA08532492}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D203">
+    <sortCondition ref="A2:A203"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Data/Loteria Words for Bingo.xlsx
+++ b/Data/Loteria Words for Bingo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gonza\Desktop\GitHub\SASsy_Bingo\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CAB3AB7-674D-4C1B-AC70-AEC903D2AE7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D9205E8-955E-426E-9BF0-B785FE3A966B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{4010E0BB-E8A8-4FBA-ACBF-0FC14DA3740C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{4010E0BB-E8A8-4FBA-ACBF-0FC14DA3740C}"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="399">
   <si>
     <t>English</t>
   </si>
@@ -1611,8 +1611,8 @@
   <dimension ref="A1:D203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <pane ySplit="1" topLeftCell="A178" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D186" sqref="D186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3401,6 +3401,9 @@
       <c r="B185" t="s">
         <v>187</v>
       </c>
+      <c r="D185" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
@@ -3497,6 +3500,9 @@
       </c>
       <c r="B196" t="s">
         <v>183</v>
+      </c>
+      <c r="D196" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.35">

--- a/Data/Loteria Words for Bingo.xlsx
+++ b/Data/Loteria Words for Bingo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gonza\Desktop\GitHub\SASsy_Bingo\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://netorgft3613154-my.sharepoint.com/personal/richann_watson_datarichconsulting_com/Documents/Desktop/GitHub/SASsy_Bingo/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D9205E8-955E-426E-9BF0-B785FE3A966B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{3D9205E8-955E-426E-9BF0-B785FE3A966B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B038F3B-8560-48EC-AFDD-EFAB944C1ADC}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{4010E0BB-E8A8-4FBA-ACBF-0FC14DA3740C}"/>
+    <workbookView xWindow="13200" yWindow="-16410" windowWidth="29040" windowHeight="15720" xr2:uid="{4010E0BB-E8A8-4FBA-ACBF-0FC14DA3740C}"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">items!$A$1:$D$203</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1608,21 +1608,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62E4F7C6-4E31-4F3B-9BAB-9FBA08532492}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:D203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A178" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D186" sqref="D186"/>
+      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A125" sqref="A125:A203"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1636,7 +1637,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>20</v>
       </c>
@@ -1644,7 +1645,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>30</v>
       </c>
@@ -1652,7 +1653,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>40</v>
       </c>
@@ -1660,7 +1661,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>50</v>
       </c>
@@ -1668,7 +1669,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>60</v>
       </c>
@@ -1676,7 +1677,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>70</v>
       </c>
@@ -1684,7 +1685,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>80</v>
       </c>
@@ -1692,7 +1693,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>90</v>
       </c>
@@ -1700,7 +1701,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>100</v>
       </c>
@@ -1708,7 +1709,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>209</v>
       </c>
@@ -1716,7 +1717,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>150</v>
       </c>
@@ -1724,7 +1725,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -1732,7 +1733,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>190</v>
       </c>
@@ -1740,7 +1741,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>321</v>
       </c>
@@ -1751,7 +1752,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>204</v>
       </c>
@@ -1759,7 +1760,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>69</v>
       </c>
@@ -1767,7 +1768,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>55</v>
       </c>
@@ -1778,7 +1779,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>146</v>
       </c>
@@ -1786,7 +1787,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>87</v>
       </c>
@@ -1794,7 +1795,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>174</v>
       </c>
@@ -1802,7 +1803,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>45</v>
       </c>
@@ -1813,7 +1814,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>103</v>
       </c>
@@ -1821,7 +1822,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>298</v>
       </c>
@@ -1832,7 +1833,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>148</v>
       </c>
@@ -1843,7 +1844,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>393</v>
       </c>
@@ -1854,7 +1855,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>316</v>
       </c>
@@ -1862,7 +1863,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>395</v>
       </c>
@@ -1873,7 +1874,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>268</v>
       </c>
@@ -1884,7 +1885,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>223</v>
       </c>
@@ -1895,7 +1896,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>19</v>
       </c>
@@ -1906,7 +1907,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>64</v>
       </c>
@@ -1917,7 +1918,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>317</v>
       </c>
@@ -1925,7 +1926,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>66</v>
       </c>
@@ -1933,7 +1934,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>365</v>
       </c>
@@ -1944,7 +1945,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>269</v>
       </c>
@@ -1955,7 +1956,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>318</v>
       </c>
@@ -1966,7 +1967,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>51</v>
       </c>
@@ -1974,7 +1975,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>324</v>
       </c>
@@ -1985,7 +1986,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>27</v>
       </c>
@@ -1993,7 +1994,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>322</v>
       </c>
@@ -2004,7 +2005,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>221</v>
       </c>
@@ -2015,7 +2016,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>398</v>
       </c>
@@ -2026,7 +2027,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>371</v>
       </c>
@@ -2037,7 +2038,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>10</v>
       </c>
@@ -2048,7 +2049,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>23</v>
       </c>
@@ -2056,7 +2057,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>137</v>
       </c>
@@ -2067,7 +2068,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>35</v>
       </c>
@@ -2075,7 +2076,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -2086,7 +2087,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>330</v>
       </c>
@@ -2097,7 +2098,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>314</v>
       </c>
@@ -2108,7 +2109,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>147</v>
       </c>
@@ -2116,7 +2117,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>271</v>
       </c>
@@ -2127,7 +2128,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>94</v>
       </c>
@@ -2135,7 +2136,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>229</v>
       </c>
@@ -2146,7 +2147,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>128</v>
       </c>
@@ -2154,7 +2155,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>390</v>
       </c>
@@ -2165,7 +2166,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>60</v>
       </c>
@@ -2173,7 +2174,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>387</v>
       </c>
@@ -2184,7 +2185,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>53</v>
       </c>
@@ -2195,7 +2196,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>95</v>
       </c>
@@ -2203,7 +2204,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>360</v>
       </c>
@@ -2214,7 +2215,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>90</v>
       </c>
@@ -2222,7 +2223,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>170</v>
       </c>
@@ -2230,7 +2231,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>319</v>
       </c>
@@ -2241,7 +2242,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>264</v>
       </c>
@@ -2252,7 +2253,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>123</v>
       </c>
@@ -2260,7 +2261,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>239</v>
       </c>
@@ -2271,7 +2272,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>278</v>
       </c>
@@ -2282,7 +2283,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>241</v>
       </c>
@@ -2293,7 +2294,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>247</v>
       </c>
@@ -2304,7 +2305,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>249</v>
       </c>
@@ -2315,7 +2316,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>323</v>
       </c>
@@ -2326,7 +2327,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>121</v>
       </c>
@@ -2334,7 +2335,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>58</v>
       </c>
@@ -2345,7 +2346,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>162</v>
       </c>
@@ -2353,7 +2354,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>332</v>
       </c>
@@ -2361,7 +2362,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>309</v>
       </c>
@@ -2372,7 +2373,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>328</v>
       </c>
@@ -2383,7 +2384,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>380</v>
       </c>
@@ -2394,7 +2395,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>231</v>
       </c>
@@ -2405,7 +2406,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>18</v>
       </c>
@@ -2416,7 +2417,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>62</v>
       </c>
@@ -2427,7 +2428,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>82</v>
       </c>
@@ -2435,7 +2436,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>228</v>
       </c>
@@ -2446,7 +2447,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>80</v>
       </c>
@@ -2454,7 +2455,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>351</v>
       </c>
@@ -2465,7 +2466,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>78</v>
       </c>
@@ -2473,7 +2474,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>385</v>
       </c>
@@ -2484,7 +2485,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>262</v>
       </c>
@@ -2495,7 +2496,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>242</v>
       </c>
@@ -2506,7 +2507,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>88</v>
       </c>
@@ -2514,7 +2515,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>102</v>
       </c>
@@ -2522,7 +2523,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>290</v>
       </c>
@@ -2533,7 +2534,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>7</v>
       </c>
@@ -2541,7 +2542,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>2</v>
       </c>
@@ -2552,7 +2553,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>171</v>
       </c>
@@ -2563,7 +2564,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>282</v>
       </c>
@@ -2571,7 +2572,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>277</v>
       </c>
@@ -2582,7 +2583,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>275</v>
       </c>
@@ -2593,7 +2594,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>214</v>
       </c>
@@ -2604,7 +2605,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>99</v>
       </c>
@@ -2612,7 +2613,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>251</v>
       </c>
@@ -2623,7 +2624,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>327</v>
       </c>
@@ -2634,7 +2635,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>16</v>
       </c>
@@ -2645,7 +2646,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>191</v>
       </c>
@@ -2653,7 +2654,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>33</v>
       </c>
@@ -2661,7 +2662,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>144</v>
       </c>
@@ -2672,7 +2673,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>37</v>
       </c>
@@ -2680,7 +2681,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>348</v>
       </c>
@@ -2691,7 +2692,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>25</v>
       </c>
@@ -2699,7 +2700,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>326</v>
       </c>
@@ -2710,7 +2711,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>373</v>
       </c>
@@ -2721,7 +2722,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>41</v>
       </c>
@@ -2732,7 +2733,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>179</v>
       </c>
@@ -2740,7 +2741,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>4</v>
       </c>
@@ -2751,7 +2752,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>158</v>
       </c>
@@ -2759,7 +2760,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>154</v>
       </c>
@@ -2767,7 +2768,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>333</v>
       </c>
@@ -2778,7 +2779,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>305</v>
       </c>
@@ -2789,7 +2790,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>131</v>
       </c>
@@ -2797,7 +2798,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>93</v>
       </c>
@@ -2805,7 +2806,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>266</v>
       </c>
@@ -2816,7 +2817,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>115</v>
       </c>
@@ -2824,7 +2825,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>142</v>
       </c>
@@ -2832,7 +2833,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>369</v>
       </c>
@@ -2843,7 +2844,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>31</v>
       </c>
@@ -2851,7 +2852,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>320</v>
       </c>
@@ -2862,7 +2863,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>375</v>
       </c>
@@ -2873,7 +2874,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>110</v>
       </c>
@@ -2881,7 +2882,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>12</v>
       </c>
@@ -2889,7 +2890,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>270</v>
       </c>
@@ -2900,7 +2901,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>220</v>
       </c>
@@ -2908,7 +2909,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>114</v>
       </c>
@@ -2919,7 +2920,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>384</v>
       </c>
@@ -2930,7 +2931,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>84</v>
       </c>
@@ -2938,7 +2939,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>265</v>
       </c>
@@ -2949,7 +2950,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>189</v>
       </c>
@@ -2960,7 +2961,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>274</v>
       </c>
@@ -2971,7 +2972,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>75</v>
       </c>
@@ -2979,7 +2980,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>257</v>
       </c>
@@ -2990,7 +2991,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>245</v>
       </c>
@@ -3001,7 +3002,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>350</v>
       </c>
@@ -3012,7 +3013,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>77</v>
       </c>
@@ -3020,7 +3021,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>112</v>
       </c>
@@ -3028,7 +3029,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>47</v>
       </c>
@@ -3039,7 +3040,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>379</v>
       </c>
@@ -3050,7 +3051,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>71</v>
       </c>
@@ -3058,7 +3059,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>14</v>
       </c>
@@ -3069,7 +3070,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>329</v>
       </c>
@@ -3080,7 +3081,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>312</v>
       </c>
@@ -3091,7 +3092,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>259</v>
       </c>
@@ -3102,7 +3103,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>279</v>
       </c>
@@ -3113,7 +3114,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>163</v>
       </c>
@@ -3121,7 +3122,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>39</v>
       </c>
@@ -3129,7 +3130,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>129</v>
       </c>
@@ -3137,7 +3138,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>104</v>
       </c>
@@ -3145,7 +3146,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>307</v>
       </c>
@@ -3153,7 +3154,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>22</v>
       </c>
@@ -3161,7 +3162,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>355</v>
       </c>
@@ -3172,7 +3173,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>125</v>
       </c>
@@ -3180,7 +3181,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>108</v>
       </c>
@@ -3188,7 +3189,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>86</v>
       </c>
@@ -3196,7 +3197,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>263</v>
       </c>
@@ -3207,7 +3208,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>178</v>
       </c>
@@ -3215,7 +3216,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>252</v>
       </c>
@@ -3223,7 +3224,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>100</v>
       </c>
@@ -3231,7 +3232,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>139</v>
       </c>
@@ -3239,7 +3240,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>331</v>
       </c>
@@ -3250,7 +3251,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>156</v>
       </c>
@@ -3258,7 +3259,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>234</v>
       </c>
@@ -3269,7 +3270,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>6</v>
       </c>
@@ -3277,7 +3278,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>152</v>
       </c>
@@ -3288,7 +3289,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>368</v>
       </c>
@@ -3299,7 +3300,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>164</v>
       </c>
@@ -3307,7 +3308,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>311</v>
       </c>
@@ -3318,7 +3319,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>272</v>
       </c>
@@ -3329,7 +3330,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>303</v>
       </c>
@@ -3340,7 +3341,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>261</v>
       </c>
@@ -3351,7 +3352,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>255</v>
       </c>
@@ -3362,7 +3363,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>20</v>
       </c>
@@ -3370,7 +3371,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>133</v>
       </c>
@@ -3378,7 +3379,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>119</v>
       </c>
@@ -3386,7 +3387,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>161</v>
       </c>
@@ -3394,7 +3395,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>92</v>
       </c>
@@ -3405,7 +3406,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>140</v>
       </c>
@@ -3413,7 +3414,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>377</v>
       </c>
@@ -3424,7 +3425,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>8</v>
       </c>
@@ -3432,7 +3433,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>236</v>
       </c>
@@ -3443,7 +3444,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>106</v>
       </c>
@@ -3451,7 +3452,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>159</v>
       </c>
@@ -3459,7 +3460,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>267</v>
       </c>
@@ -3470,7 +3471,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>117</v>
       </c>
@@ -3478,7 +3479,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>217</v>
       </c>
@@ -3486,7 +3487,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>56</v>
       </c>
@@ -3494,7 +3495,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>182</v>
       </c>
@@ -3505,7 +3506,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>273</v>
       </c>
@@ -3516,7 +3517,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>160</v>
       </c>
@@ -3524,7 +3525,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>67</v>
       </c>
@@ -3532,7 +3533,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>325</v>
       </c>
@@ -3543,7 +3544,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>276</v>
       </c>
@@ -3554,7 +3555,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>43</v>
       </c>
@@ -3565,7 +3566,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>73</v>
       </c>
@@ -3574,7 +3575,11 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D203" xr:uid="{62E4F7C6-4E31-4F3B-9BAB-9FBA08532492}"/>
+  <autoFilter ref="A1:D203" xr:uid="{62E4F7C6-4E31-4F3B-9BAB-9FBA08532492}">
+    <filterColumn colId="3">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D203">
     <sortCondition ref="A2:A203"/>
   </sortState>
